--- a/socket_programming/Assignment/data.xlsx
+++ b/socket_programming/Assignment/data.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="750" yWindow="510" windowWidth="19095" windowHeight="7185"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Error Rate</t>
   </si>
@@ -24,24 +27,30 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -57,27 +66,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -86,20 +103,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Error Rate Vs Average Data Rate</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -111,6 +131,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -133,7 +159,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Trendline for Average</c:name>
+            <c:name>Trendline</c:name>
             <c:spPr>
               <a:ln w="19050">
                 <a:solidFill>
@@ -143,6 +169,17 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Trendline</c:name>
             <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -150,13 +187,82 @@
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8497.268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7926.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7144.2640000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6583.2179999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6229.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5552.4440000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5097.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4404.902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2900.9259999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1656.752</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -166,11 +272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218966242"/>
-        <c:axId val="1178449140"/>
+        <c:axId val="88595840"/>
+        <c:axId val="89409024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218966242"/>
+        <c:axId val="88595840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -195,14 +301,18 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Error Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -216,12 +326,15 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1178449140"/>
+        <c:crossAx val="89409024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1178449140"/>
+        <c:axId val="89409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -246,14 +359,18 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Data Rate</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -267,21 +384,52 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218966242"/>
+        <c:crossAx val="88595840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -290,20 +438,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Data Length VS Data Rate</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Data</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Length Vs Data Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -312,50 +464,90 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="47625">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4684EE"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="4684EE"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
-            <c:name>Trendline for Data series 1</c:name>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="4684EE">
-                    <a:alpha val="60000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:name>Trendline</c:name>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10119.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61931.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69297.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79410.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77813.399999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -365,25 +557,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1173589848"/>
-        <c:axId val="1059649649"/>
+        <c:axId val="89852544"/>
+        <c:axId val="89858432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1173589848"/>
+        <c:axId val="89852544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -394,47 +577,285 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Data Length</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Date</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
+        <c:crossAx val="89858432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89858432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0"/>
+                  <a:t>Data Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89852544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate Vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1059649649"/>
-      </c:valAx>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Average</c:name>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Trendline</c:name>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8224281027737385E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3133347378353929E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1144817716702518E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8060276904091597E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3059691309966205E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0440807687569654E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1371652079075079E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3160792226478592E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9983963741232971E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4991356582035213E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89901696"/>
+        <c:axId val="89907584"/>
+      </c:scatterChart>
       <c:valAx>
-        <c:axId val="1059649649"/>
+        <c:axId val="89901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -445,229 +866,1027 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Data Rate</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Error</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
+        <c:crossAx val="89907584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89907584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89901696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Length Vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1173589848"/>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:name>Trendline</c:name>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7285717109033778E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8312615530720565E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0463504440112628E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.360649490728481E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.365681829332703E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3002664624962851E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4501306972835025E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89673728"/>
+        <c:axId val="89675264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89673728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89675264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89675264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89673728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos y="3267075" x="6848475"/>
-    <xdr:ext cy="3533775" cx="5715000"/>
-    <xdr:graphicFrame>
+    <xdr:pos x="457200" y="2905125"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off y="0" x="0"/>
-        <a:ext cy="0" cx="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
-  <xdr:absoluteAnchor>
-    <xdr:pos y="3562350" x="762000"/>
-    <xdr:ext cy="3533775" cx="5715000"/>
-    <xdr:graphicFrame>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="图表 3" title="Data Length Vs Data Rate"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off y="0" x="0"/>
-        <a:ext cy="0" cx="0"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2">
-      <c s="1" r="A2">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="B2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>8497.268</v>
       </c>
-      <c s="1" r="D2">
-        <v>500.0</v>
-      </c>
-      <c s="1" r="E2">
-        <v>10119.8</v>
+      <c r="D2" s="1">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10119.799999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>(57972/1000)/B2</f>
+        <v>6.8224281027737385E-3</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <f>(57972/1000)/E2</f>
+        <v>5.7285717109033778E-3</v>
       </c>
     </row>
-    <row r="3">
-      <c s="1" r="A3">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="B3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>7926.89</v>
       </c>
-      <c s="1" r="D3">
-        <v>1000.0</v>
-      </c>
-      <c s="1" r="E3">
-        <v>58967.0</v>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>58967</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">(57972/1000)/B3</f>
+        <v>7.3133347378353929E-3</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">(57972/1000)/E3</f>
+        <v>9.8312615530720565E-4</v>
       </c>
     </row>
-    <row r="4">
-      <c s="1" r="A4">
-        <v>20.0</v>
-      </c>
-      <c s="1" r="B4">
-        <v>7144.264</v>
-      </c>
-      <c s="1" r="D4">
-        <v>1500.0</v>
-      </c>
-      <c s="1" r="E4">
-        <v>55404.0</v>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7144.2640000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55404</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>8.1144817716702518E-3</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.0463504440112628E-3</v>
       </c>
     </row>
-    <row r="5">
-      <c s="1" r="A5">
-        <v>30.0</v>
-      </c>
-      <c s="1" r="B5">
-        <v>6583.218</v>
-      </c>
-      <c s="1" r="D5">
-        <v>2000.0</v>
-      </c>
-      <c s="1" r="E5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6583.2179999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
         <v>61931.6</v>
       </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.8060276904091597E-3</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>9.360649490728481E-4</v>
+      </c>
     </row>
-    <row r="6">
-      <c s="1" r="A6">
-        <v>40.0</v>
-      </c>
-      <c s="1" r="B6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
         <v>6229.55</v>
       </c>
-      <c s="1" r="D6">
-        <v>2500.0</v>
-      </c>
-      <c s="1" r="E6">
-        <v>69297.4</v>
+      <c r="D6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>69297.399999999994</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>9.3059691309966205E-3</v>
+      </c>
+      <c r="J6">
+        <v>2500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>8.365681829332703E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c s="1" r="A7">
-        <v>50.0</v>
-      </c>
-      <c s="1" r="B7">
-        <v>5552.444</v>
-      </c>
-      <c s="1" r="D7">
-        <v>3000.0</v>
-      </c>
-      <c s="1" r="E7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5552.4440000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="1">
         <v>79410.8</v>
       </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.0440807687569654E-2</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>7.3002664624962851E-4</v>
+      </c>
     </row>
-    <row r="8">
-      <c s="1" r="A8">
-        <v>60.0</v>
-      </c>
-      <c s="1" r="B8">
-        <v>5097.94</v>
-      </c>
-      <c s="1" r="D8">
-        <v>4000.0</v>
-      </c>
-      <c s="1" r="E8">
-        <v>77813.4</v>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5097.9399999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>77813.399999999994</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.1371652079075079E-2</v>
+      </c>
+      <c r="J8">
+        <v>4000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>7.4501306972835025E-4</v>
       </c>
     </row>
-    <row r="9">
-      <c s="1" r="A9">
-        <v>70.0</v>
-      </c>
-      <c s="1" r="B9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1">
         <v>4404.902</v>
       </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.3160792226478592E-2</v>
+      </c>
     </row>
-    <row r="10">
-      <c s="1" r="A10">
-        <v>80.0</v>
-      </c>
-      <c s="1" r="B10">
-        <v>2900.926</v>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2900.9259999999999</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.9983963741232971E-2</v>
       </c>
     </row>
-    <row r="11">
-      <c s="1" r="A11">
-        <v>90.0</v>
-      </c>
-      <c s="1" r="B11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1">
         <v>1656.752</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.4991356582035213E-2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>